--- a/biology/Botanique/Eurypetalum_unijugum/Eurypetalum_unijugum.xlsx
+++ b/biology/Botanique/Eurypetalum_unijugum/Eurypetalum_unijugum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurypetalum unijugum est une espèce de plantes du genre Eurypetalum dans la famille des Fabaceae, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre qui atteint au moins 20 m de hauteur et 80 cm de diamètre de fût. Il se caractérise par une seule paire de folioles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre qui atteint au moins 20 m de hauteur et 80 cm de diamètre de fût. Il se caractérise par une seule paire de folioles.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, elle y est peu abondante, mais présente dans plusieurs régions (Sud-Ouest, Littoral, Centre, Sud[2]. Elle a été vue notamment à Baduma, dans la réserve forestière de  Bakundu-Sud, au lac Ejagham, à Campo, à Bipindi[3].
-Le premier spécimen, décrit par Hermann Harms en 1913, avait été observé en fleurs en avril 1912 par Georg August Zenker sur les rives de la Lokoundjé à Bipindi[4].
-Avec une population décroissante, l'espèce est aujourd'hui classée sur la liste rouge de l'UICN comme plante vulnérable[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, elle y est peu abondante, mais présente dans plusieurs régions (Sud-Ouest, Littoral, Centre, Sud. Elle a été vue notamment à Baduma, dans la réserve forestière de  Bakundu-Sud, au lac Ejagham, à Campo, à Bipindi.
+Le premier spécimen, décrit par Hermann Harms en 1913, avait été observé en fleurs en avril 1912 par Georg August Zenker sur les rives de la Lokoundjé à Bipindi.
+Avec une population décroissante, l'espèce est aujourd'hui classée sur la liste rouge de l'UICN comme plante vulnérable.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les populations locales se servent de son bois pour la construction de leurs habitations[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les populations locales se servent de son bois pour la construction de leurs habitations.
 </t>
         </is>
       </c>
